--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.140860465644229</v>
+        <v>1.332649053379625</v>
       </c>
       <c r="D2">
-        <v>0.2540906925419733</v>
+        <v>0.1962859687175309</v>
       </c>
       <c r="E2">
         <v>0.7768670037697517</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.9924825973186641</v>
+        <v>1.05205638241968</v>
       </c>
       <c r="D3">
-        <v>0.3211051719476332</v>
+        <v>0.3041927058056277</v>
       </c>
       <c r="E3">
         <v>0.7768670037697517</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.0976931903486736</v>
+        <v>0.1078463366202454</v>
       </c>
       <c r="D4">
-        <v>0.9221875834178985</v>
+        <v>0.9150951092465252</v>
       </c>
       <c r="E4">
         <v>0.7768670037697517</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.352588387419468</v>
+        <v>2.825770296413805</v>
       </c>
       <c r="D5">
-        <v>0.01875812510300401</v>
+        <v>0.009841598548882224</v>
       </c>
       <c r="E5">
         <v>0.7768670037697517</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.1891815983858287</v>
+        <v>-0.2014396957651644</v>
       </c>
       <c r="D6">
-        <v>0.8499733548012962</v>
+        <v>0.8422056787874563</v>
       </c>
       <c r="E6">
         <v>0.7377558020212429</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.8123692192099129</v>
+        <v>-1.102182581385788</v>
       </c>
       <c r="D7">
-        <v>0.4166949667726239</v>
+        <v>0.282294425541433</v>
       </c>
       <c r="E7">
         <v>0.7377558020212429</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.656194820310426</v>
+        <v>1.613316690742703</v>
       </c>
       <c r="D8">
-        <v>0.09786922743699766</v>
+        <v>0.1209292460206937</v>
       </c>
       <c r="E8">
         <v>0.7377558020212429</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.863533687833639</v>
+        <v>-1.102146646766532</v>
       </c>
       <c r="D9">
-        <v>0.3879674426572106</v>
+        <v>0.2823097043932687</v>
       </c>
       <c r="E9">
         <v>0.7438846968983654</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.693563341124122</v>
+        <v>1.444050001177935</v>
       </c>
       <c r="D10">
-        <v>0.09053377494884063</v>
+        <v>0.162816200751013</v>
       </c>
       <c r="E10">
         <v>0.7438846968983654</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.870935771681832</v>
+        <v>1.756394177002759</v>
       </c>
       <c r="D11">
-        <v>0.06152780037530725</v>
+        <v>0.09293393441114683</v>
       </c>
       <c r="E11">
         <v>0.7721217936556914</v>
